--- a/media/Bones/UptakeSuggester - Bones.xlsx
+++ b/media/Bones/UptakeSuggester - Bones.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="28">
   <si>
     <t>https://commons.wikimedia.org/wiki/File:Ankle fractures 1 -- Smart-Servier.png</t>
   </si>
@@ -98,39 +98,6 @@
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/鎖骨骨折</t>
-  </si>
-  <si>
-    <t>https://commons.wikimedia.org/wiki/File:Collarbone fracture - Clavicle fracture -- Smart-Servier.jpg</t>
-  </si>
-  <si>
-    <t>https://commons.wikimedia.org/wiki/File:Finger fractures 1 -- Smart-Servier.png</t>
-  </si>
-  <si>
-    <t>https://www.wikidata.org/wiki/Q4350506</t>
-  </si>
-  <si>
-    <t>https://ru.wikipedia.org/wiki/Перелом_пальцев_кисти</t>
-  </si>
-  <si>
-    <t>https://commons.wikimedia.org/wiki/File:Finger fractures -- Smart-Servier.jpg</t>
-  </si>
-  <si>
-    <t>https://commons.wikimedia.org/wiki/File:Thigh bone fracture - Fracture of femur 1 -- Smart-Servier.png</t>
-  </si>
-  <si>
-    <t>https://www.wikidata.org/wiki/Q4350503</t>
-  </si>
-  <si>
-    <t>https://ar.wikipedia.org/wiki/كسر_الفخذ</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Femoral_fracture</t>
-  </si>
-  <si>
-    <t>https://pt.wikipedia.org/wiki/Fratura_femoral</t>
-  </si>
-  <si>
-    <t>https://ru.wikipedia.org/wiki/Перелом_бедренной_кости</t>
   </si>
 </sst>
 </file>
@@ -489,7 +456,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AN10"/>
+  <dimension ref="A1:AN3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -740,238 +707,6 @@
       </c>
       <c r="AN3" s="3">
         <f>HYPERLINK(AM3,"zh:鎖骨骨折")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:40">
-      <c r="A4" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B4" s="2">
-        <f>HYPERLINK(A4,"Collarbone fracture - Clavicle fracture -- Smart-Servier.jpg")</f>
-        <v>0</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="2">
-        <f>HYPERLINK(C4,"Q1746068")</f>
-        <v>0</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="3">
-        <f>HYPERLINK(E4,"ar:كسر_الترقوة")</f>
-        <v>0</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H4" s="3">
-        <f>HYPERLINK(G4,"ca:Fractura_de_clavícula")</f>
-        <v>0</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J4" s="3">
-        <f>HYPERLINK(I4,"de:Klavikulafraktur")</f>
-        <v>0</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="L4" s="3">
-        <f>HYPERLINK(K4,"en:Clavicle_fracture")</f>
-        <v>0</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="N4" s="3">
-        <f>HYPERLINK(M4,"es:Fractura_de_clavícula")</f>
-        <v>0</v>
-      </c>
-      <c r="O4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="P4" s="3">
-        <f>HYPERLINK(O4,"et:Rangluumurd")</f>
-        <v>0</v>
-      </c>
-      <c r="Q4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="R4" s="3">
-        <f>HYPERLINK(Q4,"fa:شکستگی_ترقوه")</f>
-        <v>0</v>
-      </c>
-      <c r="S4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="T4" s="3">
-        <f>HYPERLINK(S4,"fr:Fracture_de_la_clavicule")</f>
-        <v>0</v>
-      </c>
-      <c r="U4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="V4" s="3">
-        <f>HYPERLINK(U4,"gl:Fractura_da_clavícula")</f>
-        <v>0</v>
-      </c>
-      <c r="W4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="X4" s="3">
-        <f>HYPERLINK(W4,"he:שבר_עצם_הבריח")</f>
-        <v>0</v>
-      </c>
-      <c r="Y4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="Z4" s="3">
-        <f>HYPERLINK(Y4,"hy:Անրակի_կոտրվածք")</f>
-        <v>0</v>
-      </c>
-      <c r="AA4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="AB4" s="3">
-        <f>HYPERLINK(AA4,"ja:鎖骨骨折")</f>
-        <v>0</v>
-      </c>
-      <c r="AC4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="AD4" s="3">
-        <f>HYPERLINK(AC4,"or:କ୍ଲାଭିକ୍ଲ_ଅସ୍ଥି_ଭଗ୍ନ")</f>
-        <v>0</v>
-      </c>
-      <c r="AE4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="AF4" s="3">
-        <f>HYPERLINK(AE4,"pl:Złamanie_obojczyka")</f>
-        <v>0</v>
-      </c>
-      <c r="AG4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="AH4" s="3">
-        <f>HYPERLINK(AG4,"pt:Fratura_de_clavícula")</f>
-        <v>0</v>
-      </c>
-      <c r="AI4" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AJ4" s="3">
-        <f>HYPERLINK(AI4,"ru:Перелом_ключицы")</f>
-        <v>0</v>
-      </c>
-      <c r="AK4" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AL4" s="3">
-        <f>HYPERLINK(AK4,"sv:Nyckelbensfraktur")</f>
-        <v>0</v>
-      </c>
-      <c r="AM4" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AN4" s="3">
-        <f>HYPERLINK(AM4,"zh:鎖骨骨折")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:40">
-      <c r="A8" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B8" s="2">
-        <f>HYPERLINK(A8,"Finger fractures 1 -- Smart-Servier.png")</f>
-        <v>0</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D8" s="2">
-        <f>HYPERLINK(C8,"Q4350506")</f>
-        <v>0</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F8" s="3">
-        <f>HYPERLINK(E8,"ru:Перелом_пальцев_кисти")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:40">
-      <c r="A9" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B9" s="2">
-        <f>HYPERLINK(A9,"Finger fractures -- Smart-Servier.jpg")</f>
-        <v>0</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D9" s="2">
-        <f>HYPERLINK(C9,"Q4350506")</f>
-        <v>0</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F9" s="3">
-        <f>HYPERLINK(E9,"ru:Перелом_пальцев_кисти")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:40">
-      <c r="A10" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B10" s="2">
-        <f>HYPERLINK(A10,"Thigh bone fracture - Fracture of femur 1 -- Smart-Servier.png")</f>
-        <v>0</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D10" s="2">
-        <f>HYPERLINK(C10,"Q4350503")</f>
-        <v>0</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F10" s="3">
-        <f>HYPERLINK(E10,"ar:كسر_الفخذ")</f>
-        <v>0</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="H10" s="3">
-        <f>HYPERLINK(G10,"en:Femoral_fracture")</f>
-        <v>0</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="J10" s="3">
-        <f>HYPERLINK(I10,"pt:Fratura_femoral")</f>
-        <v>0</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="L10" s="3">
-        <f>HYPERLINK(K10,"ru:Перелом_бедренной_кости")</f>
         <v>0</v>
       </c>
     </row>
@@ -1011,38 +746,6 @@
     <hyperlink ref="AI3" r:id="rId32"/>
     <hyperlink ref="AK3" r:id="rId33"/>
     <hyperlink ref="AM3" r:id="rId34"/>
-    <hyperlink ref="A4" r:id="rId35"/>
-    <hyperlink ref="C4" r:id="rId36"/>
-    <hyperlink ref="E4" r:id="rId37"/>
-    <hyperlink ref="G4" r:id="rId38"/>
-    <hyperlink ref="I4" r:id="rId39"/>
-    <hyperlink ref="K4" r:id="rId40"/>
-    <hyperlink ref="M4" r:id="rId41"/>
-    <hyperlink ref="O4" r:id="rId42"/>
-    <hyperlink ref="Q4" r:id="rId43"/>
-    <hyperlink ref="S4" r:id="rId44"/>
-    <hyperlink ref="U4" r:id="rId45"/>
-    <hyperlink ref="W4" r:id="rId46"/>
-    <hyperlink ref="Y4" r:id="rId47"/>
-    <hyperlink ref="AA4" r:id="rId48"/>
-    <hyperlink ref="AC4" r:id="rId49"/>
-    <hyperlink ref="AE4" r:id="rId50"/>
-    <hyperlink ref="AG4" r:id="rId51"/>
-    <hyperlink ref="AI4" r:id="rId52"/>
-    <hyperlink ref="AK4" r:id="rId53"/>
-    <hyperlink ref="AM4" r:id="rId54"/>
-    <hyperlink ref="A8" r:id="rId55"/>
-    <hyperlink ref="C8" r:id="rId56"/>
-    <hyperlink ref="E8" r:id="rId57"/>
-    <hyperlink ref="A9" r:id="rId58"/>
-    <hyperlink ref="C9" r:id="rId59"/>
-    <hyperlink ref="E9" r:id="rId60"/>
-    <hyperlink ref="A10" r:id="rId61"/>
-    <hyperlink ref="C10" r:id="rId62"/>
-    <hyperlink ref="E10" r:id="rId63"/>
-    <hyperlink ref="G10" r:id="rId64"/>
-    <hyperlink ref="I10" r:id="rId65"/>
-    <hyperlink ref="K10" r:id="rId66"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/media/Bones/UptakeSuggester - Bones.xlsx
+++ b/media/Bones/UptakeSuggester - Bones.xlsx
@@ -14,90 +14,219 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="28">
-  <si>
-    <t>https://commons.wikimedia.org/wiki/File:Ankle fractures 1 -- Smart-Servier.png</t>
-  </si>
-  <si>
-    <t>https://www.wikidata.org/wiki/Q2314265</t>
-  </si>
-  <si>
-    <t>https://ar.wikipedia.org/wiki/كسر_الكاحل</t>
-  </si>
-  <si>
-    <t>https://de.wikipedia.org/wiki/Sprunggelenkfraktur</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Ankle_fracture</t>
-  </si>
-  <si>
-    <t>https://sv.wikipedia.org/wiki/Fotledsfraktur</t>
-  </si>
-  <si>
-    <t>https://vi.wikipedia.org/wiki/Gãy_xương_mắt_cá_chân</t>
-  </si>
-  <si>
-    <t>https://commons.wikimedia.org/wiki/File:Ankle fractures -- Smart-Servier.jpg</t>
-  </si>
-  <si>
-    <t>https://commons.wikimedia.org/wiki/File:Collarbone fracture - Clavicle fracture 1 -- Smart-Servier.png</t>
-  </si>
-  <si>
-    <t>https://www.wikidata.org/wiki/Q1746068</t>
-  </si>
-  <si>
-    <t>https://ar.wikipedia.org/wiki/كسر_الترقوة</t>
-  </si>
-  <si>
-    <t>https://ca.wikipedia.org/wiki/Fractura_de_clavícula</t>
-  </si>
-  <si>
-    <t>https://de.wikipedia.org/wiki/Klavikulafraktur</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Clavicle_fracture</t>
-  </si>
-  <si>
-    <t>https://es.wikipedia.org/wiki/Fractura_de_clavícula</t>
-  </si>
-  <si>
-    <t>https://et.wikipedia.org/wiki/Rangluumurd</t>
-  </si>
-  <si>
-    <t>https://fa.wikipedia.org/wiki/شکستگی_ترقوه</t>
-  </si>
-  <si>
-    <t>https://fr.wikipedia.org/wiki/Fracture_de_la_clavicule</t>
-  </si>
-  <si>
-    <t>https://gl.wikipedia.org/wiki/Fractura_da_clavícula</t>
-  </si>
-  <si>
-    <t>https://he.wikipedia.org/wiki/שבר_עצם_הבריח</t>
-  </si>
-  <si>
-    <t>https://hy.wikipedia.org/wiki/Անրակի_կոտրվածք</t>
-  </si>
-  <si>
-    <t>https://ja.wikipedia.org/wiki/鎖骨骨折</t>
-  </si>
-  <si>
-    <t>https://or.wikipedia.org/wiki/କ୍ଲାଭିକ୍ଲ_ଅସ୍ଥି_ଭଗ୍ନ</t>
-  </si>
-  <si>
-    <t>https://pl.wikipedia.org/wiki/Złamanie_obojczyka</t>
-  </si>
-  <si>
-    <t>https://pt.wikipedia.org/wiki/Fratura_de_clavícula</t>
-  </si>
-  <si>
-    <t>https://ru.wikipedia.org/wiki/Перелом_ключицы</t>
-  </si>
-  <si>
-    <t>https://sv.wikipedia.org/wiki/Nyckelbensfraktur</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/鎖骨骨折</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
+  <si>
+    <t>https://commons.wikimedia.org/wiki/File:Kind of fractures - Closed fracture Open fracture -- Smart-Servier.jpg</t>
+  </si>
+  <si>
+    <t>https://www.wikidata.org/wiki/Q68833</t>
+  </si>
+  <si>
+    <t>https://af.wikipedia.org/wiki/Beenbreuk</t>
+  </si>
+  <si>
+    <t>https://ar.wikipedia.org/wiki/كسر_العظم</t>
+  </si>
+  <si>
+    <t>https://ast.wikipedia.org/wiki/Quebra</t>
+  </si>
+  <si>
+    <t>https://be.wikipedia.org/wiki/Пералом</t>
+  </si>
+  <si>
+    <t>https://ca.wikipedia.org/wiki/Fractura_(medicina)</t>
+  </si>
+  <si>
+    <t>https://ckb.wikipedia.org/wiki/شکانی_ئێسک</t>
+  </si>
+  <si>
+    <t>https://cs.wikipedia.org/wiki/Zlomenina</t>
+  </si>
+  <si>
+    <t>https://cy.wikipedia.org/wiki/Torasgwrn</t>
+  </si>
+  <si>
+    <t>https://da.wikipedia.org/wiki/Knoglefraktur</t>
+  </si>
+  <si>
+    <t>https://de.wikipedia.org/wiki/Knochenbruch</t>
+  </si>
+  <si>
+    <t>https://el.wikipedia.org/wiki/Κάταγμα</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Bone_fracture</t>
+  </si>
+  <si>
+    <t>https://eo.wikipedia.org/wiki/Frakturo</t>
+  </si>
+  <si>
+    <t>https://es.wikipedia.org/wiki/Fractura</t>
+  </si>
+  <si>
+    <t>https://et.wikipedia.org/wiki/Luumurd</t>
+  </si>
+  <si>
+    <t>https://eu.wikipedia.org/wiki/Hezur_haustura</t>
+  </si>
+  <si>
+    <t>https://fa.wikipedia.org/wiki/شکستگی_استخوان</t>
+  </si>
+  <si>
+    <t>https://fi.wikipedia.org/wiki/Luunmurtuma</t>
+  </si>
+  <si>
+    <t>https://fr.wikipedia.org/wiki/Fracture</t>
+  </si>
+  <si>
+    <t>https://ga.wikipedia.org/wiki/Briseadh_(cnámh)</t>
+  </si>
+  <si>
+    <t>https://gl.wikipedia.org/wiki/Fractura</t>
+  </si>
+  <si>
+    <t>https://gu.wikipedia.org/wiki/અસ્થિભંગ</t>
+  </si>
+  <si>
+    <t>https://he.wikipedia.org/wiki/שבר_(רפואה)</t>
+  </si>
+  <si>
+    <t>https://hi.wikipedia.org/wiki/अस्थिभंग</t>
+  </si>
+  <si>
+    <t>https://hy.wikipedia.org/wiki/Կոտրվածք</t>
+  </si>
+  <si>
+    <t>https://ia.wikipedia.org/wiki/Fractura_osso</t>
+  </si>
+  <si>
+    <t>https://id.wikipedia.org/wiki/Retak_tulang</t>
+  </si>
+  <si>
+    <t>https://it.wikipedia.org/wiki/Frattura_(medicina)</t>
+  </si>
+  <si>
+    <t>https://jam.wikipedia.org/wiki/Buon_frakcha</t>
+  </si>
+  <si>
+    <t>https://ja.wikipedia.org/wiki/骨折</t>
+  </si>
+  <si>
+    <t>https://jv.wikipedia.org/wiki/Balung_tugel</t>
+  </si>
+  <si>
+    <t>https://ka.wikipedia.org/wiki/მოტეხილობა</t>
+  </si>
+  <si>
+    <t>https://kk.wikipedia.org/wiki/Сынық</t>
+  </si>
+  <si>
+    <t>https://kn.wikipedia.org/wiki/ಮೂಳೆ_ಮುರಿತ(Bone_fracture)</t>
+  </si>
+  <si>
+    <t>https://ko.wikipedia.org/wiki/골절</t>
+  </si>
+  <si>
+    <t>https://la.wikipedia.org/wiki/Fractura_(ossis)</t>
+  </si>
+  <si>
+    <t>https://lt.wikipedia.org/wiki/Kaulo_lūžis</t>
+  </si>
+  <si>
+    <t>https://mk.wikipedia.org/wiki/Скршеница_на_коска</t>
+  </si>
+  <si>
+    <t>https://mr.wikipedia.org/wiki/अस्थिभंग</t>
+  </si>
+  <si>
+    <t>https://ms.wikipedia.org/wiki/Patah_tulang</t>
+  </si>
+  <si>
+    <t>https://nl.wikipedia.org/wiki/Botbreuk</t>
+  </si>
+  <si>
+    <t>https://nn.wikipedia.org/wiki/Knokkelbrot</t>
+  </si>
+  <si>
+    <t>https://no.wikipedia.org/wiki/Beinbrudd</t>
+  </si>
+  <si>
+    <t>https://or.wikipedia.org/wiki/ଅସ୍ଥି_ଭଗ୍ନ</t>
+  </si>
+  <si>
+    <t>https://pl.wikipedia.org/wiki/Złamanie</t>
+  </si>
+  <si>
+    <t>https://ps.wikipedia.org/wiki/د_هډوکي_ماتېدل</t>
+  </si>
+  <si>
+    <t>https://pt.wikipedia.org/wiki/Fratura_óssea</t>
+  </si>
+  <si>
+    <t>https://qu.wikipedia.org/wiki/Tullup'aki</t>
+  </si>
+  <si>
+    <t>https://ro.wikipedia.org/wiki/Fractură</t>
+  </si>
+  <si>
+    <t>https://ru.wikipedia.org/wiki/Перелом_кости</t>
+  </si>
+  <si>
+    <t>https://scn.wikipedia.org/wiki/Ruttura_(frattura)</t>
+  </si>
+  <si>
+    <t>https://sco.wikipedia.org/wiki/Bane_fractur</t>
+  </si>
+  <si>
+    <t>https://sh.wikipedia.org/wiki/Prelom_kosti</t>
+  </si>
+  <si>
+    <t>https://simple.wikipedia.org/wiki/Bone_fracture</t>
+  </si>
+  <si>
+    <t>https://sk.wikipedia.org/wiki/Zlomenina_(kosť)</t>
+  </si>
+  <si>
+    <t>https://sl.wikipedia.org/wiki/Kostni_zlom</t>
+  </si>
+  <si>
+    <t>https://sr.wikipedia.org/wiki/Prelom_kosti</t>
+  </si>
+  <si>
+    <t>https://sv.wikipedia.org/wiki/Fraktur_(medicin)</t>
+  </si>
+  <si>
+    <t>https://ta.wikipedia.org/wiki/எலும்பு_முறிவு</t>
+  </si>
+  <si>
+    <t>https://te.wikipedia.org/wiki/ఎముక_విరుపు</t>
+  </si>
+  <si>
+    <t>https://th.wikipedia.org/wiki/กระดูกหัก</t>
+  </si>
+  <si>
+    <t>https://tr.wikipedia.org/wiki/Kemik_kırığı</t>
+  </si>
+  <si>
+    <t>https://uk.wikipedia.org/wiki/Переломи_кісток</t>
+  </si>
+  <si>
+    <t>https://uz.wikipedia.org/wiki/Suyak_sinishi</t>
+  </si>
+  <si>
+    <t>https://vi.wikipedia.org/wiki/Gãy_xương</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/骨折</t>
+  </si>
+  <si>
+    <t>https://commons.wikimedia.org/wiki/File:Kind of fractures - Comminuted -- Smart-Servier.png</t>
+  </si>
+  <si>
+    <t>https://www.wikidata.org/wiki/Q30927439</t>
+  </si>
+  <si>
+    <t>https://pt.wikipedia.org/wiki/Fratura_Cominutiva</t>
   </si>
 </sst>
 </file>
@@ -456,7 +585,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AN3"/>
+  <dimension ref="A1:EF3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -466,247 +595,504 @@
     <col min="4" max="4" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40">
+    <row r="1" spans="1:136">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2">
-        <f>HYPERLINK(A1,"Ankle fractures 1 -- Smart-Servier.png")</f>
+        <f>HYPERLINK(A1,"Kind of fractures - Closed fracture Open fracture -- Smart-Servier.jpg")</f>
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="2">
-        <f>HYPERLINK(C1,"Q2314265")</f>
+        <f>HYPERLINK(C1,"Q68833")</f>
         <v>0</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F1" s="3">
-        <f>HYPERLINK(E1,"ar:كسر_الكاحل")</f>
+        <f>HYPERLINK(E1,"af:Beenbreuk")</f>
         <v>0</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="H1" s="3">
-        <f>HYPERLINK(G1,"de:Sprunggelenkfraktur")</f>
+        <f>HYPERLINK(G1,"ar:كسر_العظم")</f>
         <v>0</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="J1" s="3">
-        <f>HYPERLINK(I1,"en:Ankle_fracture")</f>
+        <f>HYPERLINK(I1,"ast:Quebra")</f>
         <v>0</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="L1" s="3">
-        <f>HYPERLINK(K1,"sv:Fotledsfraktur")</f>
+        <f>HYPERLINK(K1,"be:Пералом")</f>
         <v>0</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="N1" s="3">
-        <f>HYPERLINK(M1,"vi:Gãy_xương_mắt_cá_chân")</f>
+        <f>HYPERLINK(M1,"ca:Fractura_(medicina)")</f>
+        <v>0</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="P1" s="3">
+        <f>HYPERLINK(O1,"ckb:شکانی_ئێسک")</f>
+        <v>0</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="R1" s="3">
+        <f>HYPERLINK(Q1,"cs:Zlomenina")</f>
+        <v>0</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="T1" s="3">
+        <f>HYPERLINK(S1,"cy:Torasgwrn")</f>
+        <v>0</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="V1" s="3">
+        <f>HYPERLINK(U1,"da:Knoglefraktur")</f>
+        <v>0</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="X1" s="3">
+        <f>HYPERLINK(W1,"de:Knochenbruch")</f>
+        <v>0</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z1" s="3">
+        <f>HYPERLINK(Y1,"el:Κάταγμα")</f>
+        <v>0</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB1" s="3">
+        <f>HYPERLINK(AA1,"en:Bone_fracture")</f>
+        <v>0</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AD1" s="3">
+        <f>HYPERLINK(AC1,"eo:Frakturo")</f>
+        <v>0</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AF1" s="3">
+        <f>HYPERLINK(AE1,"es:Fractura")</f>
+        <v>0</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AH1" s="3">
+        <f>HYPERLINK(AG1,"et:Luumurd")</f>
+        <v>0</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="AJ1" s="3">
+        <f>HYPERLINK(AI1,"eu:Hezur_haustura")</f>
+        <v>0</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="AL1" s="3">
+        <f>HYPERLINK(AK1,"fa:شکستگی_استخوان")</f>
+        <v>0</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="AN1" s="3">
+        <f>HYPERLINK(AM1,"fi:Luunmurtuma")</f>
+        <v>0</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AP1" s="3">
+        <f>HYPERLINK(AO1,"fr:Fracture")</f>
+        <v>0</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AR1" s="3">
+        <f>HYPERLINK(AQ1,"ga:Briseadh_(cnámh)")</f>
+        <v>0</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AT1" s="3">
+        <f>HYPERLINK(AS1,"gl:Fractura")</f>
+        <v>0</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AV1" s="3">
+        <f>HYPERLINK(AU1,"gu:અસ્થિભંગ")</f>
+        <v>0</v>
+      </c>
+      <c r="AW1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AX1" s="3">
+        <f>HYPERLINK(AW1,"he:שבר_(רפואה)")</f>
+        <v>0</v>
+      </c>
+      <c r="AY1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AZ1" s="3">
+        <f>HYPERLINK(AY1,"hi:अस्थिभंग")</f>
+        <v>0</v>
+      </c>
+      <c r="BA1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="BB1" s="3">
+        <f>HYPERLINK(BA1,"hy:Կոտրվածք")</f>
+        <v>0</v>
+      </c>
+      <c r="BC1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="BD1" s="3">
+        <f>HYPERLINK(BC1,"ia:Fractura_osso")</f>
+        <v>0</v>
+      </c>
+      <c r="BE1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="BF1" s="3">
+        <f>HYPERLINK(BE1,"id:Retak_tulang")</f>
+        <v>0</v>
+      </c>
+      <c r="BG1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="BH1" s="3">
+        <f>HYPERLINK(BG1,"it:Frattura_(medicina)")</f>
+        <v>0</v>
+      </c>
+      <c r="BI1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="BJ1" s="3">
+        <f>HYPERLINK(BI1,"jam:Buon_frakcha")</f>
+        <v>0</v>
+      </c>
+      <c r="BK1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="BL1" s="3">
+        <f>HYPERLINK(BK1,"ja:骨折")</f>
+        <v>0</v>
+      </c>
+      <c r="BM1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="BN1" s="3">
+        <f>HYPERLINK(BM1,"jv:Balung_tugel")</f>
+        <v>0</v>
+      </c>
+      <c r="BO1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="BP1" s="3">
+        <f>HYPERLINK(BO1,"ka:მოტეხილობა")</f>
+        <v>0</v>
+      </c>
+      <c r="BQ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="BR1" s="3">
+        <f>HYPERLINK(BQ1,"kk:Сынық")</f>
+        <v>0</v>
+      </c>
+      <c r="BS1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="BT1" s="3">
+        <f>HYPERLINK(BS1,"kn:ಮೂಳೆ_ಮುರಿತ(Bone_fracture)")</f>
+        <v>0</v>
+      </c>
+      <c r="BU1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="BV1" s="3">
+        <f>HYPERLINK(BU1,"ko:골절")</f>
+        <v>0</v>
+      </c>
+      <c r="BW1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="BX1" s="3">
+        <f>HYPERLINK(BW1,"la:Fractura_(ossis)")</f>
+        <v>0</v>
+      </c>
+      <c r="BY1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="BZ1" s="3">
+        <f>HYPERLINK(BY1,"lt:Kaulo_lūžis")</f>
+        <v>0</v>
+      </c>
+      <c r="CA1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="CB1" s="3">
+        <f>HYPERLINK(CA1,"mk:Скршеница_на_коска")</f>
+        <v>0</v>
+      </c>
+      <c r="CC1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="CD1" s="3">
+        <f>HYPERLINK(CC1,"mr:अस्थिभंग")</f>
+        <v>0</v>
+      </c>
+      <c r="CE1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="CF1" s="3">
+        <f>HYPERLINK(CE1,"ms:Patah_tulang")</f>
+        <v>0</v>
+      </c>
+      <c r="CG1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="CH1" s="3">
+        <f>HYPERLINK(CG1,"nl:Botbreuk")</f>
+        <v>0</v>
+      </c>
+      <c r="CI1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="CJ1" s="3">
+        <f>HYPERLINK(CI1,"nn:Knokkelbrot")</f>
+        <v>0</v>
+      </c>
+      <c r="CK1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="CL1" s="3">
+        <f>HYPERLINK(CK1,"no:Beinbrudd")</f>
+        <v>0</v>
+      </c>
+      <c r="CM1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="CN1" s="3">
+        <f>HYPERLINK(CM1,"or:ଅସ୍ଥି_ଭଗ୍ନ")</f>
+        <v>0</v>
+      </c>
+      <c r="CO1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="CP1" s="3">
+        <f>HYPERLINK(CO1,"pl:Złamanie")</f>
+        <v>0</v>
+      </c>
+      <c r="CQ1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="CR1" s="3">
+        <f>HYPERLINK(CQ1,"ps:د_هډوکي_ماتېدل")</f>
+        <v>0</v>
+      </c>
+      <c r="CS1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="CT1" s="3">
+        <f>HYPERLINK(CS1,"pt:Fratura_óssea")</f>
+        <v>0</v>
+      </c>
+      <c r="CU1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="CV1" s="3">
+        <f>HYPERLINK(CU1,"qu:Tullup'aki")</f>
+        <v>0</v>
+      </c>
+      <c r="CW1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="CX1" s="3">
+        <f>HYPERLINK(CW1,"ro:Fractură")</f>
+        <v>0</v>
+      </c>
+      <c r="CY1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="CZ1" s="3">
+        <f>HYPERLINK(CY1,"ru:Перелом_кости")</f>
+        <v>0</v>
+      </c>
+      <c r="DA1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="DB1" s="3">
+        <f>HYPERLINK(DA1,"scn:Ruttura_(frattura)")</f>
+        <v>0</v>
+      </c>
+      <c r="DC1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="DD1" s="3">
+        <f>HYPERLINK(DC1,"sco:Bane_fractur")</f>
+        <v>0</v>
+      </c>
+      <c r="DE1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="DF1" s="3">
+        <f>HYPERLINK(DE1,"sh:Prelom_kosti")</f>
+        <v>0</v>
+      </c>
+      <c r="DG1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="DH1" s="3">
+        <f>HYPERLINK(DG1,"simple:Bone_fracture")</f>
+        <v>0</v>
+      </c>
+      <c r="DI1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="DJ1" s="3">
+        <f>HYPERLINK(DI1,"sk:Zlomenina_(kosť)")</f>
+        <v>0</v>
+      </c>
+      <c r="DK1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="DL1" s="3">
+        <f>HYPERLINK(DK1,"sl:Kostni_zlom")</f>
+        <v>0</v>
+      </c>
+      <c r="DM1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="DN1" s="3">
+        <f>HYPERLINK(DM1,"sr:Prelom_kosti")</f>
+        <v>0</v>
+      </c>
+      <c r="DO1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="DP1" s="3">
+        <f>HYPERLINK(DO1,"sv:Fraktur_(medicin)")</f>
+        <v>0</v>
+      </c>
+      <c r="DQ1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="DR1" s="3">
+        <f>HYPERLINK(DQ1,"ta:எலும்பு_முறிவு")</f>
+        <v>0</v>
+      </c>
+      <c r="DS1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="DT1" s="3">
+        <f>HYPERLINK(DS1,"te:ఎముక_విరుపు")</f>
+        <v>0</v>
+      </c>
+      <c r="DU1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="DV1" s="3">
+        <f>HYPERLINK(DU1,"th:กระดูกหัก")</f>
+        <v>0</v>
+      </c>
+      <c r="DW1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="DX1" s="3">
+        <f>HYPERLINK(DW1,"tr:Kemik_kırığı")</f>
+        <v>0</v>
+      </c>
+      <c r="DY1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="DZ1" s="3">
+        <f>HYPERLINK(DY1,"uk:Переломи_кісток")</f>
+        <v>0</v>
+      </c>
+      <c r="EA1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="EB1" s="3">
+        <f>HYPERLINK(EA1,"uz:Suyak_sinishi")</f>
+        <v>0</v>
+      </c>
+      <c r="EC1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="ED1" s="3">
+        <f>HYPERLINK(EC1,"vi:Gãy_xương")</f>
+        <v>0</v>
+      </c>
+      <c r="EE1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="EF1" s="3">
+        <f>HYPERLINK(EE1,"zh:骨折")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:40">
-      <c r="A2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="2">
-        <f>HYPERLINK(A2,"Ankle fractures -- Smart-Servier.jpg")</f>
-        <v>0</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="2">
-        <f>HYPERLINK(C2,"Q2314265")</f>
-        <v>0</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" s="3">
-        <f>HYPERLINK(E2,"ar:كسر_الكاحل")</f>
-        <v>0</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H2" s="3">
-        <f>HYPERLINK(G2,"de:Sprunggelenkfraktur")</f>
-        <v>0</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="J2" s="3">
-        <f>HYPERLINK(I2,"en:Ankle_fracture")</f>
-        <v>0</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="L2" s="3">
-        <f>HYPERLINK(K2,"sv:Fotledsfraktur")</f>
-        <v>0</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="N2" s="3">
-        <f>HYPERLINK(M2,"vi:Gãy_xương_mắt_cá_chân")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:40">
+    <row r="3" spans="1:136">
       <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>68</v>
       </c>
       <c r="B3" s="2">
-        <f>HYPERLINK(A3,"Collarbone fracture - Clavicle fracture 1 -- Smart-Servier.png")</f>
+        <f>HYPERLINK(A3,"Kind of fractures - Comminuted -- Smart-Servier.png")</f>
         <v>0</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>9</v>
+        <v>69</v>
       </c>
       <c r="D3" s="2">
-        <f>HYPERLINK(C3,"Q1746068")</f>
+        <f>HYPERLINK(C3,"Q30927439")</f>
         <v>0</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="F3" s="3">
-        <f>HYPERLINK(E3,"ar:كسر_الترقوة")</f>
-        <v>0</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H3" s="3">
-        <f>HYPERLINK(G3,"ca:Fractura_de_clavícula")</f>
-        <v>0</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J3" s="3">
-        <f>HYPERLINK(I3,"de:Klavikulafraktur")</f>
-        <v>0</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="L3" s="3">
-        <f>HYPERLINK(K3,"en:Clavicle_fracture")</f>
-        <v>0</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="N3" s="3">
-        <f>HYPERLINK(M3,"es:Fractura_de_clavícula")</f>
-        <v>0</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="P3" s="3">
-        <f>HYPERLINK(O3,"et:Rangluumurd")</f>
-        <v>0</v>
-      </c>
-      <c r="Q3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="R3" s="3">
-        <f>HYPERLINK(Q3,"fa:شکستگی_ترقوه")</f>
-        <v>0</v>
-      </c>
-      <c r="S3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="T3" s="3">
-        <f>HYPERLINK(S3,"fr:Fracture_de_la_clavicule")</f>
-        <v>0</v>
-      </c>
-      <c r="U3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="V3" s="3">
-        <f>HYPERLINK(U3,"gl:Fractura_da_clavícula")</f>
-        <v>0</v>
-      </c>
-      <c r="W3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="X3" s="3">
-        <f>HYPERLINK(W3,"he:שבר_עצם_הבריח")</f>
-        <v>0</v>
-      </c>
-      <c r="Y3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="Z3" s="3">
-        <f>HYPERLINK(Y3,"hy:Անրակի_կոտրվածք")</f>
-        <v>0</v>
-      </c>
-      <c r="AA3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="AB3" s="3">
-        <f>HYPERLINK(AA3,"ja:鎖骨骨折")</f>
-        <v>0</v>
-      </c>
-      <c r="AC3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="AD3" s="3">
-        <f>HYPERLINK(AC3,"or:କ୍ଲାଭିକ୍ଲ_ଅସ୍ଥି_ଭଗ୍ନ")</f>
-        <v>0</v>
-      </c>
-      <c r="AE3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="AF3" s="3">
-        <f>HYPERLINK(AE3,"pl:Złamanie_obojczyka")</f>
-        <v>0</v>
-      </c>
-      <c r="AG3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="AH3" s="3">
-        <f>HYPERLINK(AG3,"pt:Fratura_de_clavícula")</f>
-        <v>0</v>
-      </c>
-      <c r="AI3" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AJ3" s="3">
-        <f>HYPERLINK(AI3,"ru:Перелом_ключицы")</f>
-        <v>0</v>
-      </c>
-      <c r="AK3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AL3" s="3">
-        <f>HYPERLINK(AK3,"sv:Nyckelbensfraktur")</f>
-        <v>0</v>
-      </c>
-      <c r="AM3" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AN3" s="3">
-        <f>HYPERLINK(AM3,"zh:鎖骨骨折")</f>
+        <f>HYPERLINK(E3,"pt:Fratura_Cominutiva")</f>
         <v>0</v>
       </c>
     </row>
@@ -719,33 +1105,70 @@
     <hyperlink ref="I1" r:id="rId5"/>
     <hyperlink ref="K1" r:id="rId6"/>
     <hyperlink ref="M1" r:id="rId7"/>
-    <hyperlink ref="A2" r:id="rId8"/>
-    <hyperlink ref="C2" r:id="rId9"/>
-    <hyperlink ref="E2" r:id="rId10"/>
-    <hyperlink ref="G2" r:id="rId11"/>
-    <hyperlink ref="I2" r:id="rId12"/>
-    <hyperlink ref="K2" r:id="rId13"/>
-    <hyperlink ref="M2" r:id="rId14"/>
-    <hyperlink ref="A3" r:id="rId15"/>
-    <hyperlink ref="C3" r:id="rId16"/>
-    <hyperlink ref="E3" r:id="rId17"/>
-    <hyperlink ref="G3" r:id="rId18"/>
-    <hyperlink ref="I3" r:id="rId19"/>
-    <hyperlink ref="K3" r:id="rId20"/>
-    <hyperlink ref="M3" r:id="rId21"/>
-    <hyperlink ref="O3" r:id="rId22"/>
-    <hyperlink ref="Q3" r:id="rId23"/>
-    <hyperlink ref="S3" r:id="rId24"/>
-    <hyperlink ref="U3" r:id="rId25"/>
-    <hyperlink ref="W3" r:id="rId26"/>
-    <hyperlink ref="Y3" r:id="rId27"/>
-    <hyperlink ref="AA3" r:id="rId28"/>
-    <hyperlink ref="AC3" r:id="rId29"/>
-    <hyperlink ref="AE3" r:id="rId30"/>
-    <hyperlink ref="AG3" r:id="rId31"/>
-    <hyperlink ref="AI3" r:id="rId32"/>
-    <hyperlink ref="AK3" r:id="rId33"/>
-    <hyperlink ref="AM3" r:id="rId34"/>
+    <hyperlink ref="O1" r:id="rId8"/>
+    <hyperlink ref="Q1" r:id="rId9"/>
+    <hyperlink ref="S1" r:id="rId10"/>
+    <hyperlink ref="U1" r:id="rId11"/>
+    <hyperlink ref="W1" r:id="rId12"/>
+    <hyperlink ref="Y1" r:id="rId13"/>
+    <hyperlink ref="AA1" r:id="rId14"/>
+    <hyperlink ref="AC1" r:id="rId15"/>
+    <hyperlink ref="AE1" r:id="rId16"/>
+    <hyperlink ref="AG1" r:id="rId17"/>
+    <hyperlink ref="AI1" r:id="rId18"/>
+    <hyperlink ref="AK1" r:id="rId19"/>
+    <hyperlink ref="AM1" r:id="rId20"/>
+    <hyperlink ref="AO1" r:id="rId21"/>
+    <hyperlink ref="AQ1" r:id="rId22"/>
+    <hyperlink ref="AS1" r:id="rId23"/>
+    <hyperlink ref="AU1" r:id="rId24"/>
+    <hyperlink ref="AW1" r:id="rId25"/>
+    <hyperlink ref="AY1" r:id="rId26"/>
+    <hyperlink ref="BA1" r:id="rId27"/>
+    <hyperlink ref="BC1" r:id="rId28"/>
+    <hyperlink ref="BE1" r:id="rId29"/>
+    <hyperlink ref="BG1" r:id="rId30"/>
+    <hyperlink ref="BI1" r:id="rId31"/>
+    <hyperlink ref="BK1" r:id="rId32"/>
+    <hyperlink ref="BM1" r:id="rId33"/>
+    <hyperlink ref="BO1" r:id="rId34"/>
+    <hyperlink ref="BQ1" r:id="rId35"/>
+    <hyperlink ref="BS1" r:id="rId36"/>
+    <hyperlink ref="BU1" r:id="rId37"/>
+    <hyperlink ref="BW1" r:id="rId38"/>
+    <hyperlink ref="BY1" r:id="rId39"/>
+    <hyperlink ref="CA1" r:id="rId40"/>
+    <hyperlink ref="CC1" r:id="rId41"/>
+    <hyperlink ref="CE1" r:id="rId42"/>
+    <hyperlink ref="CG1" r:id="rId43"/>
+    <hyperlink ref="CI1" r:id="rId44"/>
+    <hyperlink ref="CK1" r:id="rId45"/>
+    <hyperlink ref="CM1" r:id="rId46"/>
+    <hyperlink ref="CO1" r:id="rId47"/>
+    <hyperlink ref="CQ1" r:id="rId48"/>
+    <hyperlink ref="CS1" r:id="rId49"/>
+    <hyperlink ref="CU1" r:id="rId50"/>
+    <hyperlink ref="CW1" r:id="rId51"/>
+    <hyperlink ref="CY1" r:id="rId52"/>
+    <hyperlink ref="DA1" r:id="rId53"/>
+    <hyperlink ref="DC1" r:id="rId54"/>
+    <hyperlink ref="DE1" r:id="rId55"/>
+    <hyperlink ref="DG1" r:id="rId56"/>
+    <hyperlink ref="DI1" r:id="rId57"/>
+    <hyperlink ref="DK1" r:id="rId58"/>
+    <hyperlink ref="DM1" r:id="rId59"/>
+    <hyperlink ref="DO1" r:id="rId60"/>
+    <hyperlink ref="DQ1" r:id="rId61"/>
+    <hyperlink ref="DS1" r:id="rId62"/>
+    <hyperlink ref="DU1" r:id="rId63"/>
+    <hyperlink ref="DW1" r:id="rId64"/>
+    <hyperlink ref="DY1" r:id="rId65"/>
+    <hyperlink ref="EA1" r:id="rId66"/>
+    <hyperlink ref="EC1" r:id="rId67"/>
+    <hyperlink ref="EE1" r:id="rId68"/>
+    <hyperlink ref="A3" r:id="rId69"/>
+    <hyperlink ref="C3" r:id="rId70"/>
+    <hyperlink ref="E3" r:id="rId71"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
